--- a/test_output.xlsx
+++ b/test_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.994790744916173</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -469,10 +469,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01108627161111511</v>
       </c>
       <c r="C3" t="n">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.994790744916173</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -497,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.02204853541223346</v>
       </c>
       <c r="C5" t="n">
-        <v>1000</v>
+        <v>977</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.01648242851680976</v>
       </c>
       <c r="C6" t="n">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -525,10 +525,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.007479633490408781</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.05337112610185989</v>
       </c>
       <c r="C8" t="n">
-        <v>1000</v>
+        <v>946</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.06045198262091322</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>939</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -567,10 +567,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.02685762837159071</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>973</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -581,10 +581,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.02386539943619457</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.02685762837159071</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>973</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0.994790744916173</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.994790744916173</v>
       </c>
       <c r="C14" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -637,10 +637,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.02189083956320146</v>
       </c>
       <c r="C15" t="n">
-        <v>1000</v>
+        <v>978</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.007516244138471909</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.009206572303818465</v>
       </c>
       <c r="C17" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0.1067656509369435</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>893</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -693,10 +693,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.01905002172484025</v>
       </c>
       <c r="C19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0.01012641730223901</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.994790744916173</v>
       </c>
       <c r="C21" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -735,10 +735,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.1565871098673118</v>
       </c>
       <c r="C22" t="n">
-        <v>1000</v>
+        <v>843</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0.007516244138471909</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -763,10 +763,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.04207137802709531</v>
       </c>
       <c r="C24" t="n">
-        <v>1000</v>
+        <v>957</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0.2659190329620848</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>734</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0.07390176256143302</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>926</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0.007753447815851886</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -819,10 +819,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.007753447815851886</v>
       </c>
       <c r="C28" t="n">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.1258996148710921</v>
       </c>
       <c r="C29" t="n">
-        <v>1000</v>
+        <v>874</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -847,12 +847,1286 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.01782347207778798</v>
       </c>
       <c r="C30" t="n">
-        <v>1000</v>
+        <v>982</v>
       </c>
       <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.008265445483282547</v>
+      </c>
+      <c r="C31" t="n">
+        <v>991</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9884638390032402</v>
+      </c>
+      <c r="C32" t="n">
+        <v>11</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.007516244138471909</v>
+      </c>
+      <c r="C33" t="n">
+        <v>992</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.02828481081192258</v>
+      </c>
+      <c r="C34" t="n">
+        <v>971</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01209195564239696</v>
+      </c>
+      <c r="C35" t="n">
+        <v>987</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.01790979922305728</v>
+      </c>
+      <c r="C36" t="n">
+        <v>982</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5020340052155187</v>
+      </c>
+      <c r="C37" t="n">
+        <v>497</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.01378385515085711</v>
+      </c>
+      <c r="C38" t="n">
+        <v>986</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.01625836172353421</v>
+      </c>
+      <c r="C39" t="n">
+        <v>983</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9943273178536832</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.01074085403101098</v>
+      </c>
+      <c r="C41" t="n">
+        <v>989</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8556015913704105</v>
+      </c>
+      <c r="C42" t="n">
+        <v>144</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.03001351708886362</v>
+      </c>
+      <c r="C43" t="n">
+        <v>969</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5841988435702492</v>
+      </c>
+      <c r="C44" t="n">
+        <v>415</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.994790744916173</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.007479633490408781</v>
+      </c>
+      <c r="C46" t="n">
+        <v>992</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.008970937438910021</v>
+      </c>
+      <c r="C47" t="n">
+        <v>991</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1112304120036203</v>
+      </c>
+      <c r="C48" t="n">
+        <v>888</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1288430790588129</v>
+      </c>
+      <c r="C49" t="n">
+        <v>871</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.008055450764998851</v>
+      </c>
+      <c r="C50" t="n">
+        <v>991</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9945404468107173</v>
+      </c>
+      <c r="C51" t="n">
+        <v>5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9946619923414682</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.07373524055042002</v>
+      </c>
+      <c r="C53" t="n">
+        <v>926</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9877552610603016</v>
+      </c>
+      <c r="C54" t="n">
+        <v>12</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.01917974071989428</v>
+      </c>
+      <c r="C55" t="n">
+        <v>980</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.994790744916173</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.071846020864011</v>
+      </c>
+      <c r="C57" t="n">
+        <v>928</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1929896008347708</v>
+      </c>
+      <c r="C58" t="n">
+        <v>807</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.00900902023493355</v>
+      </c>
+      <c r="C59" t="n">
+        <v>990</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.007826000252342912</v>
+      </c>
+      <c r="C60" t="n">
+        <v>992</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.04962468064870978</v>
+      </c>
+      <c r="C61" t="n">
+        <v>950</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9933249630513347</v>
+      </c>
+      <c r="C62" t="n">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.01061987227731801</v>
+      </c>
+      <c r="C63" t="n">
+        <v>989</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.005727017031003784</v>
+      </c>
+      <c r="C64" t="n">
+        <v>994</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9868499683026056</v>
+      </c>
+      <c r="C65" t="n">
+        <v>13</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.01408536837458338</v>
+      </c>
+      <c r="C66" t="n">
+        <v>985</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.8743753422159469</v>
+      </c>
+      <c r="C67" t="n">
+        <v>125</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.01074085403101098</v>
+      </c>
+      <c r="C68" t="n">
+        <v>989</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.994790744916173</v>
+      </c>
+      <c r="C69" t="n">
+        <v>5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.994790744916173</v>
+      </c>
+      <c r="C70" t="n">
+        <v>5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.06583109569158306</v>
+      </c>
+      <c r="C71" t="n">
+        <v>934</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.01251534891414415</v>
+      </c>
+      <c r="C72" t="n">
+        <v>987</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.040671720279209</v>
+      </c>
+      <c r="C73" t="n">
+        <v>959</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.994790744916173</v>
+      </c>
+      <c r="C74" t="n">
+        <v>5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.01560732419154148</v>
+      </c>
+      <c r="C75" t="n">
+        <v>984</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.02618730732308798</v>
+      </c>
+      <c r="C76" t="n">
+        <v>973</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.01074085403101098</v>
+      </c>
+      <c r="C77" t="n">
+        <v>989</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.02569397004888669</v>
+      </c>
+      <c r="C78" t="n">
+        <v>974</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.1305926642617663</v>
+      </c>
+      <c r="C79" t="n">
+        <v>869</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.007479633490408781</v>
+      </c>
+      <c r="C80" t="n">
+        <v>992</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.01533035807569775</v>
+      </c>
+      <c r="C81" t="n">
+        <v>984</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.01074085403101098</v>
+      </c>
+      <c r="C82" t="n">
+        <v>989</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.01134031951931565</v>
+      </c>
+      <c r="C83" t="n">
+        <v>988</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.00960298867740032</v>
+      </c>
+      <c r="C84" t="n">
+        <v>990</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.01260312884930202</v>
+      </c>
+      <c r="C85" t="n">
+        <v>987</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.994790744916173</v>
+      </c>
+      <c r="C86" t="n">
+        <v>5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.01361328687739835</v>
+      </c>
+      <c r="C87" t="n">
+        <v>986</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.994790744916173</v>
+      </c>
+      <c r="C88" t="n">
+        <v>5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.8213610141879031</v>
+      </c>
+      <c r="C89" t="n">
+        <v>178</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.03117738683671455</v>
+      </c>
+      <c r="C90" t="n">
+        <v>968</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.01900875419063638</v>
+      </c>
+      <c r="C91" t="n">
+        <v>980</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.02803801613524941</v>
+      </c>
+      <c r="C92" t="n">
+        <v>971</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.007479633490408781</v>
+      </c>
+      <c r="C93" t="n">
+        <v>992</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.3341830762637185</v>
+      </c>
+      <c r="C94" t="n">
+        <v>665</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.09074894655612005</v>
+      </c>
+      <c r="C95" t="n">
+        <v>909</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.02216399022401761</v>
+      </c>
+      <c r="C96" t="n">
+        <v>977</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.01016526136202238</v>
+      </c>
+      <c r="C97" t="n">
+        <v>989</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.02195355433267971</v>
+      </c>
+      <c r="C98" t="n">
+        <v>978</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.007479633490408781</v>
+      </c>
+      <c r="C99" t="n">
+        <v>992</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.01074085403101098</v>
+      </c>
+      <c r="C100" t="n">
+        <v>989</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.007516244138471909</v>
+      </c>
+      <c r="C101" t="n">
+        <v>992</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.01958131028776067</v>
+      </c>
+      <c r="C102" t="n">
+        <v>980</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.009364531831777601</v>
+      </c>
+      <c r="C103" t="n">
+        <v>990</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.02040508147890071</v>
+      </c>
+      <c r="C104" t="n">
+        <v>979</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.03524659482433007</v>
+      </c>
+      <c r="C105" t="n">
+        <v>964</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.009562623591738097</v>
+      </c>
+      <c r="C106" t="n">
+        <v>990</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.05738425911591211</v>
+      </c>
+      <c r="C107" t="n">
+        <v>942</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.03894570507686314</v>
+      </c>
+      <c r="C108" t="n">
+        <v>961</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.007479633490408781</v>
+      </c>
+      <c r="C109" t="n">
+        <v>992</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.03649427855374347</v>
+      </c>
+      <c r="C110" t="n">
+        <v>963</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.05217103210091923</v>
+      </c>
+      <c r="C111" t="n">
+        <v>947</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.03813460679364483</v>
+      </c>
+      <c r="C112" t="n">
+        <v>961</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.04164686373033633</v>
+      </c>
+      <c r="C113" t="n">
+        <v>958</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.03649427855374347</v>
+      </c>
+      <c r="C114" t="n">
+        <v>963</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.9933249630513347</v>
+      </c>
+      <c r="C115" t="n">
+        <v>6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.994790744916173</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.994790744916173</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.994790744916173</v>
+      </c>
+      <c r="C118" t="n">
+        <v>5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.9902138564653437</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.994790744916173</v>
+      </c>
+      <c r="C120" t="n">
+        <v>5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.04345735826377036</v>
+      </c>
+      <c r="C121" t="n">
+        <v>956</v>
+      </c>
+      <c r="D121" t="n">
         <v>0</v>
       </c>
     </row>
